--- a/mbs-perturbation/greedy/welm/nearmiss/greedy_welm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/greedy/welm/nearmiss/greedy_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.575</v>
+        <v>0.9421487603305786</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.6776859504132231</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.7766666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7375</v>
+        <v>0.8099173553719008</v>
       </c>
     </row>
   </sheetData>
